--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -1,21 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\littlewho\Documents\UiPath\PriceTracking\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C362D7-A6BD-4E40-9FB2-D29B6F951488}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="3037" yWindow="3037" windowWidth="18851" windowHeight="9844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Pcgarage" sheetId="3" r:id="rId1"/>
-    <sheet name="Emag" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,73 +18,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Product name</t>
-  </si>
-  <si>
-    <t>4.04600 Lei</t>
-  </si>
-  <si>
-    <t>Laptop Gaming Lenovo IdeaPad 3 15ACH6 cu procesor AMD Ryzen 5 5600H pana la 4.2GHz, 15.6", Full HD, IPS, 8GB, 512GB SSD, NVIDIA GeForce GTX 1650 4GB, No OS, Shadow Black</t>
-  </si>
-  <si>
-    <t>3.49999 Lei</t>
-  </si>
-  <si>
-    <t>Laptop Gaming Lenovo IdeaPad 3 15IHU6 cu procesor Intel Core i5-11300H, 15.6", Full HD, 16GB, 512GB SSD, NVIDIA GeForce GTX 1650 4GB, No OS, Shadow Black</t>
-  </si>
-  <si>
-    <t>Laptop Gaming Lenovo IdeaPad 3 15ACH6 cu procesor AMD Ryzen 7 5800H, 15.6", Full HD, 8GB, 512GB SSD, NVIDIA GeForce GTX 1650 4GB, No OS, Shadow Black</t>
-  </si>
-  <si>
-    <t>3.39999 Lei</t>
-  </si>
-  <si>
-    <t>Laptop Gaming Lenovo IdeaPad 3 15IHU6 cu procesor Intel Core i5-11300H, 15.6", Full HD, 8GB, 512GB SSD, NVIDIA GeForce GTX 1650 4GB, No OS, Shadow Black</t>
-  </si>
-  <si>
-    <t>2.41808 Lei</t>
-  </si>
-  <si>
-    <t>Laptop Lenovo IdeaPad 3 15IIL05 cu procesor Intel Core i3-1005G1, 15.6", Full HD, 8GB, 256GB SSD, NVIDIA GeForce MX330 2GB, No OS, Platinum Grey</t>
-  </si>
-  <si>
-    <t>3.398,99 RON</t>
-  </si>
-  <si>
-    <t>Laptop Lenovo Gaming 15.6'' IdeaPad 3 15IHU6, FHD IPS, Procesor Intel® Core™ i5-11300H (8M Cache, up to 4.40 GHz, with IPU), 8GB DDR4, 512GB SSD, GeForce GTX 1650 4GB, No OS, Shadow Black</t>
-  </si>
-  <si>
-    <t>3.498,99 RON</t>
-  </si>
-  <si>
-    <t>Laptop Lenovo Gaming 15.6'' IdeaPad 3 15ACH6, FHD IPS, Procesor AMD Ryzen™ 7 5800H, 8GB DDR4, 512GB SSD, GeForce GTX 1650 4GB, No OS, Shadow Black</t>
-  </si>
-  <si>
-    <t>3.098,99 RON</t>
-  </si>
-  <si>
-    <t>Laptop Lenovo Gaming 15.6'' IdeaPad 3 15ACH6, FHD IPS, Procesor AMD Ryzen™ 5 5600H, 8GB DDR4, 256GB SSD, GeForce GTX 1650 4GB, No OS, Shadow Black</t>
-  </si>
-  <si>
-    <t>Laptop Lenovo Gaming 15.6'' IdeaPad 3 15ARH05, FHD IPS, Procesor AMD Ryzen™ 7 4800H, 8GB DDR4, 256GB SSD, GeForce GTX 1650 Ti 4GB, Free DOS, Chameleon Blue</t>
-  </si>
-  <si>
-    <t>3.198,99 RON</t>
-  </si>
-  <si>
-    <t>Laptop Lenovo Gaming 15.6'' IdeaPad 3 15ARH05, FHD IPS, Procesor AMD Ryzen™ 7 4800H, 8GB DDR4, 256GB SSD, GeForce GTX 1650 4GB, Free DOS, Onyx Black</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -403,134 +330,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DD9DEF-4454-4D17-B066-94D1F2FB7EE3}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB74BDE-6D42-4486-A31D-B8AAFB5F989B}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rpaproject\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D75A66-23BB-4E9E-9C1B-1B8319DB3CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,79 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+  <si>
+    <t>Laptop Gaming ASUS ROG Strix G17 G713IC cu procesor AMD Ryzen™ 7 4800H, 17.3", Full HD, 144Hz, 8GB, 1TB SSD, NVIDIA® GeForce RTX™ 3050 4GB, No OS, Original Black</t>
+  </si>
+  <si>
+    <t>https://www.emag.ro/laptop-gaming-asus-rog-strix-g17-g713ic-cu-procesor-amd-ryzentm-7-4800h-17-3-full-hd-144hz-8gb-1tb-ssd-nvidiar-geforce-rtxtm-3050-4gb-no-os-original-black-g713ic-hx008/pd/DQ52NPMBM/?X-Search-Id=7a9f24f3f85fe5874a80&amp;X-Product-Id=8556783&amp;X-Search-Page=1&amp;X-Search-Position=0&amp;X-Section=search&amp;X-MB=0&amp;X-Search-Action=view</t>
+  </si>
+  <si>
+    <t>G713IC-HX008</t>
+  </si>
+  <si>
+    <t>emag</t>
+  </si>
+  <si>
+    <t>Laptop Gaming Acer Aspire 7 A715-41G cu procesor AMD Ryzen™ 5 3550H, 15.6" Full HD, 16GB, 512GB SSD, NVIDIA® GeForce® GTX 1650Ti 4GB, No OS, Charcoal Black</t>
+  </si>
+  <si>
+    <t>https://www.emag.ro/laptop-gaming-acer-aspire-7-a715-41g-cu-procesor-amd-ryzentm-5-3550h-15-6-full-hd-16gb-512gb-ssd-nvidiar-geforcer-gtx-1650ti-4gb-no-os-charcoal-black-nh-q8qex-006/pd/D94T8PMBM/?X-Search-Id=247d58f606c6ef33972f&amp;X-Product-Id=8634639&amp;X-Search-Page=1&amp;X-Search-Position=0&amp;X-Section=search&amp;X-MB=0&amp;X-Search-Action=view</t>
+  </si>
+  <si>
+    <t>NH.Q8QEX.006</t>
+  </si>
+  <si>
+    <t>Laptop Gaming ASUS TUF F15 FX506HEB cu procesor Intel® Core™ i5-11400H, 15.6", Full HD, 144Hz, 8GB, 512GB SSD, NVIDIA® GeForce RTX™ 3050 Ti 4GB, No OS, Graphite Black</t>
+  </si>
+  <si>
+    <t>https://www.emag.ro/laptop-gaming-asus-tuf-f15-fx506heb-cu-procesor-intelr-coretm-i5-11400h-15-6-full-hd-144hz-8gb-512gb-ssd-nvidiar-geforce-rtxtm-3050-ti-4gb-no-os-graphite-black-fx506heb-hn148/pd/DVNWXXMBM/?X-Search-Id=1b6b9cc581721ecf910d&amp;X-Product-Id=8733832&amp;X-Search-Page=1&amp;X-Search-Position=0&amp;X-Section=search&amp;X-MB=0&amp;X-Search-Action=view</t>
+  </si>
+  <si>
+    <t>FX506HEB-HN148</t>
+  </si>
+  <si>
+    <t>Laptop ultraportabil Dell Latitude 3410 cu procesor Intel Celeron 5205U, 14” Full HD, Memorie RAM 4GB DDR4, Stocare 128GB SSD, Intel UHD Graphics, Windows 10 Pro, Grey</t>
+  </si>
+  <si>
+    <t>https://www.emag.ro/laptop-ultraportabil-dell-latitude-3410-cu-procesor-intel-celeron-5205u-14-full-hd-memorie-ram-4gb-ddr4-stocare-128gb-ssd-intel-uhd-graphics-windows-10-pro-grey-dl341015898541wp/pd/DWM5H2MBM/?X-Search-Id=cd10833756fb86858fb8&amp;X-Product-Id=7126139&amp;X-Search-Page=1&amp;X-Search-Position=0&amp;X-Section=search&amp;X-MB=0&amp;X-Search-Action=view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DL341015898541WP </t>
+  </si>
+  <si>
+    <t>Ultrabook Acer 14'' Swift 3 SF314-57, FHD, Procesor Intel® Core™ i5-1035G1 (6M Cache, up to 3.60 GHz), 8GB DDR4, 512GB SSD, GMA UHD, Win 10 Home, Steel Gray</t>
+  </si>
+  <si>
+    <t>pcgarage.ro/ultrabook/acer/14-swift-3-sf314-57-fhd-procesor-intel-core-i5-1035g1-6m-cache-up-to-360-ghz-8gb-ddr4-512gb-ssd-gma-uhd-win-10-home-steel-gray/</t>
+  </si>
+  <si>
+    <t>pcgarage</t>
+  </si>
+  <si>
+    <t>Laptop Acer Gaming 15.6'' Aspire 7 A715-41G, FHD IPS, Procesor AMD Ryzen™ 5 3550H (4M Cache, up to 3.7 GHz), 16GB DDR4, 512GB SSD, GeForce GTX 1650 Ti 4GB, No OS, Charcoal Black</t>
+  </si>
+  <si>
+    <t>pcgarage.ro/notebook-laptop/acer/gaming-156-aspire-7-a715-41g-fhd-ips-procesor-amd-ryzen-5-3550h-4m-cache-up-to-37-ghz-16gb-ddr4-512gb-ssd-geforce-gtx-1650-ti-4gb-no-os-charcoal-black/</t>
+  </si>
+  <si>
+    <t>Laptop ASUS Gaming 15.6'' TUF F15 FX506HEB, FHD 144Hz, Procesor Intel® Core™ i7-11800H (24M Cache, up to 4.60 GHz), 16GB DDR4, 512GB SSD, GeForce RTX 3050 Ti 4GB, No OS, Graphite Black</t>
+  </si>
+  <si>
+    <t>https://www.pcgarage.ro/notebook-laptop/asus/gaming-156-tuf-f15-fx506heb-fhd-144hz-procesor-intel-core-i7-11800h-24m-cache-up-to-460-ghz-16gb-ddr4-512gb-ssd-geforce-rtx-3050-ti-4gb-no-os-graphite-black/</t>
+  </si>
+  <si>
+    <t>Laptop ASUS Gaming 15.6'' TUF F15 FX506HEB, FHD 144Hz, Procesor Intel® Core™ i7-11800H (24M Cache, up to 4.60 GHz), 16GB DDR4, 512GB SSD, GeForce RTX 3050 Ti 4GB, No OS, Eclipse Gray</t>
+  </si>
+  <si>
+    <t>https://www.pcgarage.ro/notebook-laptop/asus/gaming-156-tuf-f15-fx506heb-fhd-144hz-procesor-intel-core-i7-11800h-24m-cache-up-to-460-ghz-16gb-ddr4-512gb-ssd-geforce-rtx-3050-ti-4gb-no-os-eclipse-gray/</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +126,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +408,236 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>4999</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>44569.634502314817</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>3499</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44569.634502314817</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>3999</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>44569.634502314817</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>1599</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>44569.634502314817</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>3340</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1">
+        <v>44569.63490740741</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>3498</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44569.63490740741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>5098</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1">
+        <v>44569.63490740741</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>5849</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1">
+        <v>44569.63490740741</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>3340</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1">
+        <v>44569.63894675926</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>5098</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1">
+        <v>44569.63894675926</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>5849</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1">
+        <v>44569.63894675926</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rpaproject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D75A66-23BB-4E9E-9C1B-1B8319DB3CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6173A3F2-345F-4794-A94A-188FD8CDDC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,33 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
-  <si>
-    <t>Laptop Gaming ASUS ROG Strix G17 G713IC cu procesor AMD Ryzen™ 7 4800H, 17.3", Full HD, 144Hz, 8GB, 1TB SSD, NVIDIA® GeForce RTX™ 3050 4GB, No OS, Original Black</t>
-  </si>
-  <si>
-    <t>https://www.emag.ro/laptop-gaming-asus-rog-strix-g17-g713ic-cu-procesor-amd-ryzentm-7-4800h-17-3-full-hd-144hz-8gb-1tb-ssd-nvidiar-geforce-rtxtm-3050-4gb-no-os-original-black-g713ic-hx008/pd/DQ52NPMBM/?X-Search-Id=7a9f24f3f85fe5874a80&amp;X-Product-Id=8556783&amp;X-Search-Page=1&amp;X-Search-Position=0&amp;X-Section=search&amp;X-MB=0&amp;X-Search-Action=view</t>
-  </si>
-  <si>
-    <t>G713IC-HX008</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
+  <si>
+    <t>Laptop Gaming Acer Aspire 7 A715-41G cu procesor AMD Ryzen™ 5 3550H, 15.6" Full HD, 16GB, 512GB SSD, NVIDIA® GeForce® GTX 1650Ti 4GB, No OS, Charcoal Black</t>
+  </si>
+  <si>
+    <t>https://www.emag.ro/laptop-gaming-acer-aspire-7-a715-41g-cu-procesor-amd-ryzentm-5-3550h-15-6-full-hd-16gb-512gb-ssd-nvidiar-geforcer-gtx-1650ti-4gb-no-os-charcoal-black-nh-q8qex-006/pd/D94T8PMBM/?X-Search-Id=559ccf36d1f34a36ad71&amp;X-Product-Id=8634639&amp;X-Search-Page=1&amp;X-Search-Position=0&amp;X-Section=search&amp;X-MB=0&amp;X-Search-Action=view</t>
+  </si>
+  <si>
+    <t>NH.Q8QEX.006</t>
   </si>
   <si>
     <t>emag</t>
   </si>
   <si>
-    <t>Laptop Gaming Acer Aspire 7 A715-41G cu procesor AMD Ryzen™ 5 3550H, 15.6" Full HD, 16GB, 512GB SSD, NVIDIA® GeForce® GTX 1650Ti 4GB, No OS, Charcoal Black</t>
-  </si>
-  <si>
-    <t>https://www.emag.ro/laptop-gaming-acer-aspire-7-a715-41g-cu-procesor-amd-ryzentm-5-3550h-15-6-full-hd-16gb-512gb-ssd-nvidiar-geforcer-gtx-1650ti-4gb-no-os-charcoal-black-nh-q8qex-006/pd/D94T8PMBM/?X-Search-Id=247d58f606c6ef33972f&amp;X-Product-Id=8634639&amp;X-Search-Page=1&amp;X-Search-Position=0&amp;X-Section=search&amp;X-MB=0&amp;X-Search-Action=view</t>
-  </si>
-  <si>
-    <t>NH.Q8QEX.006</t>
-  </si>
-  <si>
     <t>Laptop Gaming ASUS TUF F15 FX506HEB cu procesor Intel® Core™ i5-11400H, 15.6", Full HD, 144Hz, 8GB, 512GB SSD, NVIDIA® GeForce RTX™ 3050 Ti 4GB, No OS, Graphite Black</t>
   </si>
   <si>
-    <t>https://www.emag.ro/laptop-gaming-asus-tuf-f15-fx506heb-cu-procesor-intelr-coretm-i5-11400h-15-6-full-hd-144hz-8gb-512gb-ssd-nvidiar-geforce-rtxtm-3050-ti-4gb-no-os-graphite-black-fx506heb-hn148/pd/DVNWXXMBM/?X-Search-Id=1b6b9cc581721ecf910d&amp;X-Product-Id=8733832&amp;X-Search-Page=1&amp;X-Search-Position=0&amp;X-Section=search&amp;X-MB=0&amp;X-Search-Action=view</t>
+    <t>https://www.emag.ro/laptop-gaming-asus-tuf-f15-fx506heb-cu-procesor-intelr-coretm-i5-11400h-15-6-full-hd-144hz-8gb-512gb-ssd-nvidiar-geforce-rtxtm-3050-ti-4gb-no-os-graphite-black-fx506heb-hn148/pd/DVNWXXMBM/?X-Search-Id=a3ca3d9a29203801c45d&amp;X-Product-Id=8733832&amp;X-Search-Page=1&amp;X-Search-Position=0&amp;X-Section=search&amp;X-MB=0&amp;X-Search-Action=view</t>
   </si>
   <si>
     <t>FX506HEB-HN148</t>
@@ -60,37 +51,40 @@
     <t>Laptop ultraportabil Dell Latitude 3410 cu procesor Intel Celeron 5205U, 14” Full HD, Memorie RAM 4GB DDR4, Stocare 128GB SSD, Intel UHD Graphics, Windows 10 Pro, Grey</t>
   </si>
   <si>
-    <t>https://www.emag.ro/laptop-ultraportabil-dell-latitude-3410-cu-procesor-intel-celeron-5205u-14-full-hd-memorie-ram-4gb-ddr4-stocare-128gb-ssd-intel-uhd-graphics-windows-10-pro-grey-dl341015898541wp/pd/DWM5H2MBM/?X-Search-Id=cd10833756fb86858fb8&amp;X-Product-Id=7126139&amp;X-Search-Page=1&amp;X-Search-Position=0&amp;X-Section=search&amp;X-MB=0&amp;X-Search-Action=view</t>
+    <t>https://www.emag.ro/laptop-ultraportabil-dell-latitude-3410-cu-procesor-intel-celeron-5205u-14-full-hd-memorie-ram-4gb-ddr4-stocare-128gb-ssd-intel-uhd-graphics-windows-10-pro-grey-dl341015898541wp/pd/DWM5H2MBM/?X-Search-Id=b79c72f8f8b4d6a38b56&amp;X-Product-Id=7126139&amp;X-Search-Page=1&amp;X-Search-Position=0&amp;X-Section=search&amp;X-MB=0&amp;X-Search-Action=view</t>
   </si>
   <si>
     <t xml:space="preserve">DL341015898541WP </t>
   </si>
   <si>
-    <t>Ultrabook Acer 14'' Swift 3 SF314-57, FHD, Procesor Intel® Core™ i5-1035G1 (6M Cache, up to 3.60 GHz), 8GB DDR4, 512GB SSD, GMA UHD, Win 10 Home, Steel Gray</t>
-  </si>
-  <si>
-    <t>pcgarage.ro/ultrabook/acer/14-swift-3-sf314-57-fhd-procesor-intel-core-i5-1035g1-6m-cache-up-to-360-ghz-8gb-ddr4-512gb-ssd-gma-uhd-win-10-home-steel-gray/</t>
+    <t>Laptop Acer Gaming 15.6'' Aspire 7 A715-41G, FHD IPS, Procesor AMD Ryzen™ 5 3550H (4M Cache, up to 3.7 GHz), 16GB DDR4, 512GB SSD, GeForce GTX 1650 Ti 4GB, No OS, Charcoal Black</t>
+  </si>
+  <si>
+    <t>pcgarage.ro/notebook-laptop/acer/gaming-156-aspire-7-a715-41g-fhd-ips-procesor-amd-ryzen-5-3550h-4m-cache-up-to-37-ghz-16gb-ddr4-512gb-ssd-geforce-gtx-1650-ti-4gb-no-os-charcoal-black/</t>
   </si>
   <si>
     <t>pcgarage</t>
   </si>
   <si>
-    <t>Laptop Acer Gaming 15.6'' Aspire 7 A715-41G, FHD IPS, Procesor AMD Ryzen™ 5 3550H (4M Cache, up to 3.7 GHz), 16GB DDR4, 512GB SSD, GeForce GTX 1650 Ti 4GB, No OS, Charcoal Black</t>
-  </si>
-  <si>
-    <t>pcgarage.ro/notebook-laptop/acer/gaming-156-aspire-7-a715-41g-fhd-ips-procesor-amd-ryzen-5-3550h-4m-cache-up-to-37-ghz-16gb-ddr4-512gb-ssd-geforce-gtx-1650-ti-4gb-no-os-charcoal-black/</t>
-  </si>
-  <si>
     <t>Laptop ASUS Gaming 15.6'' TUF F15 FX506HEB, FHD 144Hz, Procesor Intel® Core™ i7-11800H (24M Cache, up to 4.60 GHz), 16GB DDR4, 512GB SSD, GeForce RTX 3050 Ti 4GB, No OS, Graphite Black</t>
   </si>
   <si>
     <t>https://www.pcgarage.ro/notebook-laptop/asus/gaming-156-tuf-f15-fx506heb-fhd-144hz-procesor-intel-core-i7-11800h-24m-cache-up-to-460-ghz-16gb-ddr4-512gb-ssd-geforce-rtx-3050-ti-4gb-no-os-graphite-black/</t>
   </si>
   <si>
+    <t>Laptop ASUS Gaming 15.6'' TUF F15 FX506HEB, FHD 144Hz, Procesor Intel® Core™ i7-11800H (24M Cache, up to 4.60 GHz), 16GB DDR4, 1TB SSD, GeForce RTX 3050 Ti 4GB, No OS, Graphite Black</t>
+  </si>
+  <si>
+    <t>https://www.pcgarage.ro/notebook-laptop/asus/gaming-156-tuf-f15-fx506heb-fhd-144hz-procesor-intel-core-i7-11800h-24m-cache-up-to-460-ghz-16gb-ddr4-1tb-ssd-geforce-rtx-3050-ti-4gb-no-os-graphite-black/</t>
+  </si>
+  <si>
     <t>Laptop ASUS Gaming 15.6'' TUF F15 FX506HEB, FHD 144Hz, Procesor Intel® Core™ i7-11800H (24M Cache, up to 4.60 GHz), 16GB DDR4, 512GB SSD, GeForce RTX 3050 Ti 4GB, No OS, Eclipse Gray</t>
   </si>
   <si>
     <t>https://www.pcgarage.ro/notebook-laptop/asus/gaming-156-tuf-f15-fx506heb-fhd-144hz-procesor-intel-core-i7-11800h-24m-cache-up-to-460-ghz-16gb-ddr4-512gb-ssd-geforce-rtx-3050-ti-4gb-no-os-eclipse-gray/</t>
+  </si>
+  <si>
+    <t>https://www.emag.ro/laptop-gaming-acer-aspire-7-a715-41g-cu-procesor-amd-ryzentm-5-3550h-15-6-full-hd-16gb-512gb-ssd-nvidiar-geforcer-gtx-1650ti-4gb-no-os-charcoal-black-nh-q8qex-006/pd/D94T8PMBM/?X-Search-Id=37801cb805df0ca91c55&amp;X-Product-Id=8634639&amp;X-Search-Page=1&amp;X-Search-Position=0&amp;X-Section=search&amp;X-MB=0&amp;X-Search-Action=view</t>
   </si>
 </sst>
 </file>
@@ -409,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,7 +419,7 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>4999</v>
+        <v>99999</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -434,7 +428,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1">
-        <v>44569.634502314817</v>
+        <v>44573.548854166664</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -445,7 +439,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3499</v>
+        <v>99999</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -454,7 +448,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1">
-        <v>44569.634502314817</v>
+        <v>44573.548854166664</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -465,7 +459,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>3999</v>
+        <v>99999</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -474,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="1">
-        <v>44569.634502314817</v>
+        <v>44573.548854166664</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -485,16 +479,16 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>1599</v>
+        <v>99999</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1">
-        <v>44569.634502314817</v>
+        <v>44573.549317129633</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -505,136 +499,196 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>3340</v>
+        <v>99999</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1">
-        <v>44569.63490740741</v>
+        <v>44573.549317129633</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
       <c r="C6">
-        <v>3498</v>
+        <v>99999</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1">
-        <v>44569.63490740741</v>
+        <v>44573.549317129633</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
       <c r="C7">
-        <v>5098</v>
+        <v>99999</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1">
-        <v>44569.63490740741</v>
+        <v>44573.549317129633</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>5849</v>
+        <v>99999</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1">
-        <v>44569.63490740741</v>
+        <v>44573.55027777778</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>3340</v>
+        <v>99999</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1">
-        <v>44569.63894675926</v>
+        <v>44573.55027777778</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>5098</v>
+        <v>99999</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F10" s="1">
-        <v>44569.63894675926</v>
+        <v>44573.55027777778</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>5849</v>
+        <v>99999</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1">
+        <v>44573.550752314812</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>99999</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1">
+        <v>44573.550752314812</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="1">
-        <v>44569.63894675926</v>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>99999</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1">
+        <v>44573.550752314812</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>99999</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1">
+        <v>44573.550752314812</v>
       </c>
     </row>
   </sheetData>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rpaproject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6173A3F2-345F-4794-A94A-188FD8CDDC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E920640-092D-49E8-BFDD-AED88C48D246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="26">
   <si>
     <t>Laptop Gaming Acer Aspire 7 A715-41G cu procesor AMD Ryzen™ 5 3550H, 15.6" Full HD, 16GB, 512GB SSD, NVIDIA® GeForce® GTX 1650Ti 4GB, No OS, Charcoal Black</t>
   </si>
@@ -85,6 +85,24 @@
   </si>
   <si>
     <t>https://www.emag.ro/laptop-gaming-acer-aspire-7-a715-41g-cu-procesor-amd-ryzentm-5-3550h-15-6-full-hd-16gb-512gb-ssd-nvidiar-geforcer-gtx-1650ti-4gb-no-os-charcoal-black-nh-q8qex-006/pd/D94T8PMBM/?X-Search-Id=37801cb805df0ca91c55&amp;X-Product-Id=8634639&amp;X-Search-Page=1&amp;X-Search-Position=0&amp;X-Section=search&amp;X-MB=0&amp;X-Search-Action=view</t>
+  </si>
+  <si>
+    <t>Laptop Gaming ASUS ROG Strix G17 G713IC cu procesor AMD Ryzen™ 7 4800H, 17.3", Full HD, 144Hz, 8GB, 1TB SSD, NVIDIA® GeForce RTX™ 3050 4GB, No OS, Original Black</t>
+  </si>
+  <si>
+    <t>https://www.emag.ro/laptop-gaming-asus-rog-strix-g17-g713ic-cu-procesor-amd-ryzentm-7-4800h-17-3-full-hd-144hz-8gb-1tb-ssd-nvidiar-geforce-rtxtm-3050-4gb-no-os-original-black-g713ic-hx008/pd/DQ52NPMBM/?X-Search-Id=1803704a751e08757469&amp;X-Product-Id=8556783&amp;X-Search-Page=1&amp;X-Search-Position=0&amp;X-Section=search&amp;X-MB=0&amp;X-Search-Action=view</t>
+  </si>
+  <si>
+    <t>G713IC-HX008</t>
+  </si>
+  <si>
+    <t>https://www.emag.ro/laptop-gaming-acer-aspire-7-a715-41g-cu-procesor-amd-ryzentm-5-3550h-15-6-full-hd-16gb-512gb-ssd-nvidiar-geforcer-gtx-1650ti-4gb-no-os-charcoal-black-nh-q8qex-006/pd/D94T8PMBM/?X-Search-Id=5ec12517a8812d691a63&amp;X-Product-Id=8634639&amp;X-Search-Page=1&amp;X-Search-Position=0&amp;X-Section=search&amp;X-MB=0&amp;X-Search-Action=view</t>
+  </si>
+  <si>
+    <t>https://www.emag.ro/laptop-gaming-asus-tuf-f15-fx506heb-cu-procesor-intelr-coretm-i5-11400h-15-6-full-hd-144hz-8gb-512gb-ssd-nvidiar-geforce-rtxtm-3050-ti-4gb-no-os-graphite-black-fx506heb-hn148/pd/DVNWXXMBM/?X-Search-Id=36b6a533524659498771&amp;X-Product-Id=8733832&amp;X-Search-Page=1&amp;X-Search-Position=0&amp;X-Section=search&amp;X-MB=0&amp;X-Search-Action=view</t>
+  </si>
+  <si>
+    <t>https://www.emag.ro/laptop-ultraportabil-dell-latitude-3410-cu-procesor-intel-celeron-5205u-14-full-hd-memorie-ram-4gb-ddr4-stocare-128gb-ssd-intel-uhd-graphics-windows-10-pro-grey-dl341015898541wp/pd/DWM5H2MBM/?X-Search-Id=b3945e3c297ca557a6f5&amp;X-Product-Id=7126139&amp;X-Search-Page=1&amp;X-Search-Position=0&amp;X-Section=search&amp;X-MB=0&amp;X-Search-Action=view</t>
   </si>
 </sst>
 </file>
@@ -403,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,7 +446,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1">
-        <v>44573.548854166664</v>
+        <v>44573.548611111109</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -448,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1">
-        <v>44573.548854166664</v>
+        <v>44573.548611111109</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -468,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="1">
-        <v>44573.548854166664</v>
+        <v>44573.548611111109</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -488,7 +506,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="1">
-        <v>44573.549317129633</v>
+        <v>44573.549305555556</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -508,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="1">
-        <v>44573.549317129633</v>
+        <v>44573.549305555556</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -528,7 +546,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="1">
-        <v>44573.549317129633</v>
+        <v>44573.549305555556</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -548,7 +566,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="1">
-        <v>44573.549317129633</v>
+        <v>44573.549305555556</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -568,7 +586,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="1">
-        <v>44573.55027777778</v>
+        <v>44573.55</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -588,7 +606,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="1">
-        <v>44573.55027777778</v>
+        <v>44573.55</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -608,7 +626,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="1">
-        <v>44573.55027777778</v>
+        <v>44573.55</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -628,7 +646,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="1">
-        <v>44573.550752314812</v>
+        <v>44573.550694444442</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -648,7 +666,7 @@
         <v>12</v>
       </c>
       <c r="F12" s="1">
-        <v>44573.550752314812</v>
+        <v>44573.550694444442</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -668,7 +686,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="1">
-        <v>44573.550752314812</v>
+        <v>44573.550694444442</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -688,7 +706,167 @@
         <v>12</v>
       </c>
       <c r="F14" s="1">
-        <v>44573.550752314812</v>
+        <v>44573.550694444442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>99999</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>44573.595555555556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>99999</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>44573.595555555556</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>99999</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>44573.595555555556</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>99999</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>44573.595555555556</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>99999</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1">
+        <v>44573.596203703702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>99999</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="1">
+        <v>44573.596203703702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>99999</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1">
+        <v>44573.596203703702</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>99999</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="1">
+        <v>44573.596203703702</v>
       </c>
     </row>
   </sheetData>
